--- a/Full E2E E-commerce Website/E2E Website.xlsx
+++ b/Full E2E E-commerce Website/E2E Website.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Games\3mk\Manual Testing\Full E2E E-commerce Website\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E600E3F9-80C8-4A80-8D76-CDF3BBA073F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAA067BB-ACA7-4C2C-84F2-974AAD9CE497}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{79766DC2-22C4-45A3-85F6-C2564B1358A9}"/>
   </bookViews>
@@ -119,15 +119,6 @@
 5-Put the link into another website</t>
   </si>
   <si>
-    <t>Verify error message when username and password are empty</t>
-  </si>
-  <si>
-    <t>Verify error message when only username is entered</t>
-  </si>
-  <si>
-    <t>Verify error message when only password is entered</t>
-  </si>
-  <si>
     <t>Verify login fails with invalid username and valid password</t>
   </si>
   <si>
@@ -200,18 +191,6 @@
   </si>
   <si>
     <t>Products should be rearranged in alphabetical descending order</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Verify the ability of filter the home page using name descending order </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Verify the ability of filter the home page using name ascending order </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Verify the ability of filter the home page using price ascending order </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Verify the ability of filter the home page using price descending order </t>
   </si>
   <si>
     <t>Products should be rearranged in price ascending order</t>
@@ -486,6 +465,27 @@
   </si>
   <si>
     <t>Logged out successfully and redirected to login page https://www.saucedemo.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify the ability of filtering the home page using name ascending order </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify the ability of filtering the home page using name descending order </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify the ability of filtering the home page using price ascending order </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify the ability of filtering the home page using price descending order </t>
+  </si>
+  <si>
+    <t>Verify the presence of error message when username and password are empty</t>
+  </si>
+  <si>
+    <t>Verify the presence of error message when only username is entered</t>
+  </si>
+  <si>
+    <t>Verify the presence of error message when only password is entered</t>
   </si>
 </sst>
 </file>
@@ -919,18 +919,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F42820EA-4004-4410-829F-A5AD489DD8F3}">
   <dimension ref="A1:P30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="A26" zoomScale="78" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="24.33203125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="35" style="1" customWidth="1"/>
+    <col min="2" max="2" width="66.88671875" style="1" customWidth="1"/>
     <col min="3" max="3" width="24.21875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="26.21875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="21.6640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="53.77734375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="56.6640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="67.44140625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="65.77734375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="75.33203125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="88.88671875" style="1" customWidth="1"/>
     <col min="8" max="8" width="52.109375" style="1" customWidth="1"/>
     <col min="9" max="9" width="19.88671875" style="1" customWidth="1"/>
     <col min="10" max="16" width="8.88671875" style="1"/>
@@ -963,38 +964,38 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="117" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" ht="70.2" x14ac:dyDescent="0.3">
       <c r="A2" s="3">
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>21</v>
+        <v>131</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="3" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E2" s="3"/>
       <c r="F2" s="3" t="s">
         <v>8</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="93.6" x14ac:dyDescent="0.3">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="70.2" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>22</v>
+        <v>132</v>
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="3" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>9</v>
@@ -1003,22 +1004,22 @@
         <v>12</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="93.6" x14ac:dyDescent="0.3">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="70.2" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
         <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>23</v>
+        <v>133</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="3" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>10</v>
@@ -1027,22 +1028,22 @@
         <v>11</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="117" x14ac:dyDescent="0.3">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
         <v>4</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="3" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>13</v>
@@ -1051,22 +1052,22 @@
         <v>14</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="117" x14ac:dyDescent="0.3">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
         <v>5</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C6" s="3"/>
       <c r="D6" s="3" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>15</v>
@@ -1075,22 +1076,22 @@
         <v>16</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="140.4" x14ac:dyDescent="0.3">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
         <v>6</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C7" s="3"/>
       <c r="D7" s="3" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>17</v>
@@ -1099,10 +1100,10 @@
         <v>18</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="140.4" x14ac:dyDescent="0.3">
@@ -1114,481 +1115,481 @@
       </c>
       <c r="C8" s="3"/>
       <c r="D8" s="3" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E8" s="3"/>
       <c r="F8" s="3" t="s">
         <v>20</v>
       </c>
       <c r="G8" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="H8" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="H8" s="3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="210.6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="9" spans="1:8" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A9" s="3">
         <v>8</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C9" s="3"/>
       <c r="D9" s="3" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="E9" s="3"/>
       <c r="F9" s="3" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="187.2" x14ac:dyDescent="0.3">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="70.2" x14ac:dyDescent="0.3">
       <c r="A10" s="3">
         <v>9</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C10" s="3"/>
       <c r="D10" s="3" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="3" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="187.2" x14ac:dyDescent="0.3">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="70.2" x14ac:dyDescent="0.3">
       <c r="A11" s="3">
         <v>10</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C11" s="3"/>
       <c r="D11" s="3" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="E11" s="3"/>
       <c r="F11" s="3" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="187.2" x14ac:dyDescent="0.3">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="70.2" x14ac:dyDescent="0.3">
       <c r="A12" s="3">
         <v>11</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>48</v>
+        <v>127</v>
       </c>
       <c r="C12" s="3"/>
       <c r="D12" s="3" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="E12" s="3"/>
       <c r="F12" s="3" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="187.2" x14ac:dyDescent="0.3">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="70.2" x14ac:dyDescent="0.3">
       <c r="A13" s="3">
         <v>12</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>47</v>
+        <v>128</v>
       </c>
       <c r="C13" s="3"/>
       <c r="D13" s="3" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="E13" s="3"/>
       <c r="F13" s="3" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="187.2" x14ac:dyDescent="0.3">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="70.2" x14ac:dyDescent="0.3">
       <c r="A14" s="3">
         <v>13</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>49</v>
+        <v>129</v>
       </c>
       <c r="C14" s="3"/>
       <c r="D14" s="3" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="E14" s="3"/>
       <c r="F14" s="3" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="187.2" x14ac:dyDescent="0.3">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="70.2" x14ac:dyDescent="0.3">
       <c r="A15" s="3">
         <v>14</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>50</v>
+        <v>130</v>
       </c>
       <c r="C15" s="3"/>
       <c r="D15" s="3" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="E15" s="3"/>
       <c r="F15" s="3" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" ht="234" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A16" s="3">
         <v>15</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="C16" s="3"/>
       <c r="D16" s="3" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="E16" s="3"/>
       <c r="F16" s="3" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" ht="234" x14ac:dyDescent="0.3">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A17" s="3">
         <v>16</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="C17" s="3"/>
       <c r="D17" s="3" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="E17" s="3"/>
       <c r="F17" s="3" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" ht="187.2" x14ac:dyDescent="0.3">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A18" s="3">
         <v>17</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="C18" s="3"/>
       <c r="D18" s="3" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="E18" s="3"/>
       <c r="F18" s="3" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" ht="187.2" x14ac:dyDescent="0.3">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A19" s="3">
         <v>18</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="C19" s="3"/>
       <c r="D19" s="3" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="E19" s="3"/>
       <c r="F19" s="3" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="H19" s="3" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" ht="187.2" x14ac:dyDescent="0.3">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A20" s="3">
         <v>19</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="C20" s="3"/>
       <c r="D20" s="3" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="E20" s="3"/>
       <c r="F20" s="3" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="H20" s="3" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" ht="187.2" x14ac:dyDescent="0.3">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A21" s="3">
         <v>20</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="C21" s="3"/>
       <c r="D21" s="3" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="E21" s="3"/>
       <c r="F21" s="3" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="H21" s="3" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" ht="210.6" x14ac:dyDescent="0.3">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A22" s="3">
         <v>21</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="C22" s="3"/>
       <c r="D22" s="3" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="E22" s="3"/>
       <c r="F22" s="3" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="H22" s="3" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" ht="210.6" x14ac:dyDescent="0.3">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A23" s="3">
         <v>22</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="C23" s="3"/>
       <c r="D23" s="3" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="E23" s="3"/>
       <c r="F23" s="3" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="H23" s="3" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" ht="210.6" x14ac:dyDescent="0.3">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A24" s="3">
         <v>23</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="C24" s="3"/>
       <c r="D24" s="3" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="E24" s="3"/>
       <c r="F24" s="3" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="H24" s="3" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" ht="210.6" x14ac:dyDescent="0.3">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A25" s="3">
         <v>24</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="C25" s="3"/>
       <c r="D25" s="3" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="H25" s="3" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" ht="210.6" x14ac:dyDescent="0.3">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A26" s="3">
         <v>25</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="C26" s="3"/>
       <c r="D26" s="3" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="E26" s="3"/>
       <c r="F26" s="3" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="H26" s="3" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" ht="210.6" x14ac:dyDescent="0.3">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A27" s="3">
         <v>26</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="C27" s="3"/>
       <c r="D27" s="3" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="E27" s="3"/>
       <c r="F27" s="3" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="H27" s="3" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" ht="210.6" x14ac:dyDescent="0.3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A28" s="3">
         <v>27</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="C28" s="3"/>
       <c r="D28" s="3" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="E28" s="3"/>
       <c r="F28" s="3" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="H28" s="3" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" ht="117" x14ac:dyDescent="0.3">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A29" s="3">
         <v>28</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="C29" s="3"/>
       <c r="D29" s="3" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="E29" s="3"/>
       <c r="F29" s="3" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="H29" s="3" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="70.2" x14ac:dyDescent="0.3">
@@ -1596,21 +1597,21 @@
         <v>29</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="C30" s="3"/>
       <c r="D30" s="3" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="E30" s="3"/>
       <c r="F30" s="3" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="H30" s="3" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
     </row>
   </sheetData>
